--- a/Estimativas-2021-11-16.xlsx
+++ b/Estimativas-2021-11-16.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Dose 1 - Comunidade Acadêmica" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Dose 2 -  Comunidade Acadêmica" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Dose 1 - Profissionais Educação" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Dose 2 - Profissionais Educação" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Dose 1 Comunidade Acadêmica" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Dose 2 Comunidade Acadêmica" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dose 1 Profissionais Educação" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Dose 2 Profissionais Educação" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t xml:space="preserve">Faixa</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">População Projetada Goiânia 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de Vacinados com a 1ª Dose</t>
+    <t xml:space="preserve">Número de Vacinados</t>
   </si>
   <si>
     <t xml:space="preserve">Proporção de Vacinados</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de Vacinados com a 2ª Dose</t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,20 +223,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -288,30 +285,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -393,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,37 +383,37 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="187.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="181.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -465,7 +438,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -490,7 +463,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -776,7 +749,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -805,7 +778,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -834,7 +807,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -859,7 +832,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -884,7 +857,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -909,7 +882,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -934,7 +907,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1014,11 +987,11 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
@@ -1031,37 +1004,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="6.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="187.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" customFormat="false" ht="181.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -1086,7 +1059,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -1111,7 +1084,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -1426,7 +1399,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -1455,7 +1428,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -1480,7 +1453,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -1505,7 +1478,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -1530,7 +1503,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -1555,7 +1528,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1635,11 +1608,11 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.9"/>
@@ -1651,37 +1624,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="187.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="181.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -1703,31 +1676,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="n">
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>102417</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="7" t="n">
         <v>0.000156224064364</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="n">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -1750,7 +1723,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -1772,51 +1745,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21" t="n">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>115046</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="0" t="n">
         <v>83795</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="7" t="n">
         <v>0.728360829581211</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="0" t="n">
         <v>124718</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="0" t="n">
         <v>92876</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="7" t="n">
         <v>0.744688016164467</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="n">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="n">
         <v>5.21281611315127</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="n">
+      <c r="H7" s="8"/>
+      <c r="I7" s="2" t="n">
         <v>1.15364397593819</v>
       </c>
     </row>
@@ -2023,33 +1996,33 @@
         <v>1.52381707079841</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21" t="n">
+      <c r="B15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="0" t="n">
         <v>56312</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="0" t="n">
         <v>52428</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="7" t="n">
         <v>0.931027134536155</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="n">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="n">
         <v>5.58616280721693</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24" t="n">
+      <c r="H15" s="8"/>
+      <c r="I15" s="2" t="n">
         <v>0.620720271749928</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -2074,7 +2047,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -2097,7 +2070,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -2120,7 +2093,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -2143,7 +2116,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -2225,16 +2198,16 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
@@ -2242,37 +2215,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="187.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -2294,31 +2267,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="n">
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>102417</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="7" t="n">
         <v>1.95280080455393E-005</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="n">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -2341,7 +2314,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -2363,51 +2336,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21" t="n">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>115046</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="0" t="n">
         <v>37716</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="7" t="n">
         <v>0.327834083757801</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="0" t="n">
         <v>124718</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="0" t="n">
         <v>51018</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="7" t="n">
         <v>0.409066854824484</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="n">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="n">
         <v>2.86346798377139</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="n">
+      <c r="H7" s="8"/>
+      <c r="I7" s="2" t="n">
         <v>1.30081441480306</v>
       </c>
     </row>
@@ -2615,7 +2588,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -2640,7 +2613,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -2665,7 +2638,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -2688,7 +2661,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -2711,7 +2684,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -2734,7 +2707,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="0" t="n">
